--- a/贝叶斯危化品仓储风险分析/code/data/贝叶斯网络参数.xlsx
+++ b/贝叶斯危化品仓储风险分析/code/data/贝叶斯网络参数.xlsx
@@ -536,19 +536,19 @@
         <v>0.318841</v>
       </c>
       <c r="J2" t="n">
-        <v>0.321257103664511</v>
+        <v>0.3206937095825985</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3007597340930674</v>
+        <v>0.3928367928367928</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3788065843621399</v>
+        <v>0.4029100529100529</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3606481481481482</v>
+        <v>0.3865740740740741</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2993827160493827</v>
+        <v>0.382716049382716</v>
       </c>
     </row>
     <row r="3">
@@ -582,19 +582,19 @@
         <v>0.26087</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3630217519106408</v>
+        <v>0.3408289241622575</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4883903133903134</v>
+        <v>0.3120031203364537</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2851851851851852</v>
+        <v>0.3059964726631393</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2986111111111111</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3374485596707819</v>
       </c>
     </row>
     <row r="4">
@@ -628,19 +628,19 @@
         <v>0.42029</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3157211444248482</v>
+        <v>0.338477366255144</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2108499525166192</v>
+        <v>0.2951600868267535</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3360082304526749</v>
+        <v>0.2910934744268078</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3407407407407407</v>
+        <v>0.3967592592592593</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3672839506172839</v>
+        <v>0.279835390946502</v>
       </c>
     </row>
   </sheetData>
